--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>12.31940633333333</v>
+      </c>
+      <c r="H2">
+        <v>36.958219</v>
+      </c>
+      <c r="I2">
+        <v>0.3801768364207869</v>
+      </c>
+      <c r="J2">
+        <v>0.3801768364207869</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>8.299916333333334</v>
-      </c>
-      <c r="H2">
-        <v>24.899749</v>
-      </c>
-      <c r="I2">
-        <v>0.2999832381170111</v>
-      </c>
-      <c r="J2">
-        <v>0.2999832381170111</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.3698900000000001</v>
+        <v>0.4857986666666667</v>
       </c>
       <c r="N2">
-        <v>1.10967</v>
+        <v>1.457396</v>
       </c>
       <c r="O2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="P2">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="Q2">
-        <v>3.070056052536667</v>
+        <v>5.984751170858223</v>
       </c>
       <c r="R2">
-        <v>27.63050447283</v>
+        <v>53.86276053772401</v>
       </c>
       <c r="S2">
-        <v>0.1357027052051623</v>
+        <v>0.1877359797094954</v>
       </c>
       <c r="T2">
-        <v>0.1357027052051623</v>
+        <v>0.1877359797094954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H3">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4477856666666666</v>
+        <v>0.4477856666666667</v>
       </c>
       <c r="N3">
         <v>1.343357</v>
       </c>
       <c r="O3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="P3">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="Q3">
-        <v>3.716583568599222</v>
+        <v>5.516453577909222</v>
       </c>
       <c r="R3">
-        <v>33.44925211739299</v>
+        <v>49.648082201183</v>
       </c>
       <c r="S3">
-        <v>0.1642805329118487</v>
+        <v>0.1730459274587062</v>
       </c>
       <c r="T3">
-        <v>0.1642805329118487</v>
+        <v>0.1730459274587062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.11265066666667</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H4">
-        <v>54.337952</v>
+        <v>36.958219</v>
       </c>
       <c r="I4">
-        <v>0.6546441409351843</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J4">
-        <v>0.6546441409351844</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3698900000000001</v>
+        <v>0.05018766666666667</v>
       </c>
       <c r="N4">
-        <v>1.10967</v>
+        <v>0.150563</v>
       </c>
       <c r="O4">
-        <v>0.4523676257945796</v>
+        <v>0.05101554696277864</v>
       </c>
       <c r="P4">
-        <v>0.4523676257945796</v>
+        <v>0.05101554696277864</v>
       </c>
       <c r="Q4">
-        <v>6.699688355093334</v>
+        <v>0.6182822585885556</v>
       </c>
       <c r="R4">
-        <v>60.29719519584001</v>
+        <v>5.564540327297</v>
       </c>
       <c r="S4">
-        <v>0.2961398157751814</v>
+        <v>0.01939492925258526</v>
       </c>
       <c r="T4">
-        <v>0.2961398157751815</v>
+        <v>0.01939492925258526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H5">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I5">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J5">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4477856666666666</v>
+        <v>0.4857986666666667</v>
       </c>
       <c r="N5">
-        <v>1.343357</v>
+        <v>1.457396</v>
       </c>
       <c r="O5">
-        <v>0.5476323742054204</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="P5">
-        <v>0.5476323742054204</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="Q5">
-        <v>8.110585353873777</v>
+        <v>8.799101543665778</v>
       </c>
       <c r="R5">
-        <v>72.995268184864</v>
+        <v>79.19191389299201</v>
       </c>
       <c r="S5">
-        <v>0.3585043251600029</v>
+        <v>0.2760194871437808</v>
       </c>
       <c r="T5">
-        <v>0.3585043251600029</v>
+        <v>0.2760194871437808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.193828666666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H6">
-        <v>3.581486</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I6">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J6">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3698900000000001</v>
+        <v>0.4477856666666667</v>
       </c>
       <c r="N6">
-        <v>1.10967</v>
+        <v>1.343357</v>
       </c>
       <c r="O6">
-        <v>0.4523676257945796</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="P6">
-        <v>0.4523676257945796</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="Q6">
-        <v>0.4415852855133334</v>
+        <v>8.110585353873777</v>
       </c>
       <c r="R6">
-        <v>3.974267569620001</v>
+        <v>72.995268184864</v>
       </c>
       <c r="S6">
-        <v>0.01951896538613365</v>
+        <v>0.2544213859452118</v>
       </c>
       <c r="T6">
-        <v>0.01951896538613365</v>
+        <v>0.2544213859452118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.193828666666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H7">
-        <v>3.581486</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I7">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J7">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4477856666666666</v>
+        <v>0.05018766666666667</v>
       </c>
       <c r="N7">
-        <v>1.343357</v>
+        <v>0.150563</v>
       </c>
       <c r="O7">
-        <v>0.5476323742054204</v>
+        <v>0.05101554696277864</v>
       </c>
       <c r="P7">
-        <v>0.5476323742054204</v>
+        <v>0.05101554696277864</v>
       </c>
       <c r="Q7">
-        <v>0.5345793653891111</v>
+        <v>0.9090316741084442</v>
       </c>
       <c r="R7">
-        <v>4.811214288502</v>
+        <v>8.181285066975999</v>
       </c>
       <c r="S7">
-        <v>0.02362949235738583</v>
+        <v>0.02851546322538902</v>
       </c>
       <c r="T7">
-        <v>0.02362949235738583</v>
+        <v>0.02851546322538902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.061538</v>
+        <v>1.603212</v>
       </c>
       <c r="H8">
-        <v>0.184614</v>
+        <v>4.809636</v>
       </c>
       <c r="I8">
-        <v>0.002224163204285066</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J8">
-        <v>0.002224163204285067</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3698900000000001</v>
+        <v>0.4857986666666667</v>
       </c>
       <c r="N8">
-        <v>1.10967</v>
+        <v>1.457396</v>
       </c>
       <c r="O8">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="P8">
-        <v>0.4523676257945796</v>
+        <v>0.4938122518903432</v>
       </c>
       <c r="Q8">
-        <v>0.02276229082</v>
+        <v>0.7788382519840001</v>
       </c>
       <c r="R8">
-        <v>0.20486061738</v>
+        <v>7.009544267856001</v>
       </c>
       <c r="S8">
-        <v>0.0010061394281021</v>
+        <v>0.02443141880040428</v>
       </c>
       <c r="T8">
-        <v>0.0010061394281021</v>
+        <v>0.02443141880040428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.061538</v>
+        <v>1.603212</v>
       </c>
       <c r="H9">
-        <v>0.184614</v>
+        <v>4.809636</v>
       </c>
       <c r="I9">
-        <v>0.002224163204285066</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J9">
-        <v>0.002224163204285067</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4477856666666666</v>
+        <v>0.4477856666666667</v>
       </c>
       <c r="N9">
         <v>1.343357</v>
       </c>
       <c r="O9">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="P9">
-        <v>0.5476323742054204</v>
+        <v>0.4551722011468782</v>
       </c>
       <c r="Q9">
-        <v>0.02755583435533333</v>
+        <v>0.7178953542280001</v>
       </c>
       <c r="R9">
-        <v>0.248002509198</v>
+        <v>6.461058188052001</v>
       </c>
       <c r="S9">
-        <v>0.001218023776182966</v>
+        <v>0.02251969777977618</v>
       </c>
       <c r="T9">
-        <v>0.001218023776182967</v>
+        <v>0.02251969777977618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.603212</v>
+      </c>
+      <c r="H10">
+        <v>4.809636</v>
+      </c>
+      <c r="I10">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="J10">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.150563</v>
+      </c>
+      <c r="O10">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="P10">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="Q10">
+        <v>0.080461469452</v>
+      </c>
+      <c r="R10">
+        <v>0.7241532250680001</v>
+      </c>
+      <c r="S10">
+        <v>0.002524000140555668</v>
+      </c>
+      <c r="T10">
+        <v>0.002524000140555668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3691416666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.107425</v>
+      </c>
+      <c r="I11">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="J11">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4857986666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.457396</v>
+      </c>
+      <c r="O11">
+        <v>0.4938122518903432</v>
+      </c>
+      <c r="P11">
+        <v>0.4938122518903432</v>
+      </c>
+      <c r="Q11">
+        <v>0.1793285294777778</v>
+      </c>
+      <c r="R11">
+        <v>1.6139567653</v>
+      </c>
+      <c r="S11">
+        <v>0.005625366236662756</v>
+      </c>
+      <c r="T11">
+        <v>0.005625366236662754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3691416666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.107425</v>
+      </c>
+      <c r="I12">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="J12">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4477856666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.343357</v>
+      </c>
+      <c r="O12">
+        <v>0.4551722011468782</v>
+      </c>
+      <c r="P12">
+        <v>0.4551722011468782</v>
+      </c>
+      <c r="Q12">
+        <v>0.1652963473027778</v>
+      </c>
+      <c r="R12">
+        <v>1.487667125725</v>
+      </c>
+      <c r="S12">
+        <v>0.005185189963184041</v>
+      </c>
+      <c r="T12">
+        <v>0.005185189963184041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3691416666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.107425</v>
+      </c>
+      <c r="I13">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="J13">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.150563</v>
+      </c>
+      <c r="O13">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="P13">
+        <v>0.05101554696277864</v>
+      </c>
+      <c r="Q13">
+        <v>0.01852635891944444</v>
+      </c>
+      <c r="R13">
+        <v>0.166737230275</v>
+      </c>
+      <c r="S13">
+        <v>0.0005811543442486836</v>
+      </c>
+      <c r="T13">
+        <v>0.0005811543442486834</v>
       </c>
     </row>
   </sheetData>
